--- a/Tablas/Tabla2d.xlsx
+++ b/Tablas/Tabla2d.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Clasificador</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Whole</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Cognitio</t>
   </si>
 </sst>
 </file>
@@ -191,19 +197,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>108593</xdr:rowOff>
+      <xdr:rowOff>160021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>91448</xdr:rowOff>
+      <xdr:rowOff>68581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -222,8 +228,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="121920" y="2486033"/>
-          <a:ext cx="3634740" cy="2726055"/>
+          <a:off x="0" y="2537461"/>
+          <a:ext cx="3535680" cy="2651760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -234,20 +240,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>177174</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571512</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>114309</xdr:rowOff>
+      <xdr:rowOff>80019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -266,8 +272,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4533900" y="2371734"/>
-          <a:ext cx="3817620" cy="2863215"/>
+          <a:off x="3916680" y="2491740"/>
+          <a:ext cx="3611892" cy="2708919"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -278,20 +284,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>568972</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>127012</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>365772</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>30489</xdr:rowOff>
+      <xdr:rowOff>91441</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -310,8 +316,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9471660" y="2369820"/>
-          <a:ext cx="3708412" cy="2781309"/>
+          <a:off x="8745232" y="2621281"/>
+          <a:ext cx="3454400" cy="2590800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -324,18 +330,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>381012</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>91449</xdr:rowOff>
+      <xdr:colOff>391172</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>60969</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -354,8 +360,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5577840"/>
-          <a:ext cx="3657612" cy="2743209"/>
+          <a:off x="0" y="5722620"/>
+          <a:ext cx="3667772" cy="2750829"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -366,20 +372,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7632</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>7629</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>137169</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 8"/>
+        <xdr:cNvPr id="12" name="Imagen 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -398,8 +404,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4465320" y="5631180"/>
-          <a:ext cx="3718572" cy="2788929"/>
+          <a:off x="3977640" y="5760729"/>
+          <a:ext cx="3474720" cy="2606040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -410,26 +416,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>414032</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>360692</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>403872</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>45729</xdr:rowOff>
+      <xdr:rowOff>175261</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 9"/>
+        <xdr:cNvPr id="13" name="Imagen 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -442,8 +448,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9258300" y="5615940"/>
-          <a:ext cx="3545852" cy="2659389"/>
+          <a:off x="8590292" y="5669281"/>
+          <a:ext cx="3647440" cy="2735580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -720,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,7 +741,7 @@
     <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -763,335 +769,352 @@
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>65.5</v>
+        <v>60.1</v>
       </c>
       <c r="C2" s="1">
-        <v>66</v>
+        <v>59.4</v>
       </c>
       <c r="D2" s="1">
-        <v>65.900000000000006</v>
+        <v>59.6</v>
       </c>
       <c r="E2" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F2" s="3">
-        <v>2.2336999999999999E-3</v>
+        <v>1.585E-3</v>
       </c>
       <c r="G2" s="1">
-        <v>39202</v>
+        <f>H2/0.2*0.8</f>
+        <v>52276</v>
       </c>
       <c r="H2" s="1">
-        <v>9802</v>
+        <v>13069</v>
       </c>
       <c r="I2" s="1">
         <f>F2/H2</f>
-        <v>2.2788206488471739E-7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.2127936337898846E-7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>67.599999999999994</v>
+        <v>62.5</v>
       </c>
       <c r="C3" s="1">
-        <v>68.099999999999994</v>
+        <v>62.5</v>
       </c>
       <c r="D3" s="1">
-        <v>68</v>
+        <v>62.5</v>
       </c>
       <c r="E3" s="1">
-        <v>0.25700000000000001</v>
+        <v>0.189</v>
       </c>
       <c r="F3" s="3">
-        <v>1.4157E-3</v>
+        <v>1.0709999999999999E-3</v>
       </c>
       <c r="G3" s="1">
-        <v>39202</v>
+        <f t="shared" ref="G3:G12" si="0">H3/0.2*0.8</f>
+        <v>52276</v>
       </c>
       <c r="H3" s="1">
-        <v>9802</v>
+        <v>13069</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I12" si="0">F3/H3</f>
-        <v>1.4442970822281168E-7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="I3:I12" si="1">F3/H3</f>
+        <v>8.1949651847884302E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>65.599999999999994</v>
+        <v>50.1</v>
       </c>
       <c r="C4" s="1">
-        <v>66.099999999999994</v>
+        <v>49.8</v>
       </c>
       <c r="D4" s="1">
-        <v>66</v>
+        <v>49.9</v>
       </c>
       <c r="E4" s="1">
-        <v>8.6999999999999994E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F4" s="3">
-        <v>2.4759999999999999E-3</v>
+        <v>1.0707E-3</v>
       </c>
       <c r="G4" s="1">
-        <v>39202</v>
+        <f t="shared" si="0"/>
+        <v>52276</v>
       </c>
       <c r="H4" s="1">
-        <v>9802</v>
+        <v>13069</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.5260150989593962E-7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>8.1926696763333081E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>56.5</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1">
-        <v>56.6</v>
+        <v>54.7</v>
       </c>
       <c r="D5" s="1">
-        <v>56.6</v>
+        <v>54.5</v>
       </c>
       <c r="E5" s="1">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F5" s="3">
-        <v>2.0487000000000001E-3</v>
+        <v>2.2081000000000002E-3</v>
       </c>
       <c r="G5" s="1">
-        <v>39202</v>
+        <f t="shared" si="0"/>
+        <v>52276</v>
       </c>
       <c r="H5" s="1">
-        <v>9802</v>
+        <v>13069</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0900836563966537E-7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1.6895707399188921E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>93.9</v>
+        <v>92.4</v>
       </c>
       <c r="C6" s="1">
-        <v>98.7</v>
+        <v>99.9</v>
       </c>
       <c r="D6" s="1">
-        <v>99.7</v>
+        <v>98.4</v>
       </c>
       <c r="E6" s="1">
-        <v>0.66200000000000003</v>
+        <v>0.626</v>
       </c>
       <c r="F6" s="3">
-        <v>3.6503000000000001E-2</v>
+        <v>3.5804500000000003E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>39202</v>
+        <f t="shared" si="0"/>
+        <v>52276</v>
       </c>
       <c r="H6" s="1">
-        <v>9802</v>
+        <v>13069</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7240359110385635E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>2.7396510827148217E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>65.400000000000006</v>
+        <v>57.2</v>
       </c>
       <c r="C7" s="1">
-        <v>66.099999999999994</v>
+        <v>57.5</v>
       </c>
       <c r="D7" s="1">
-        <v>66</v>
+        <v>57.5</v>
       </c>
       <c r="E7" s="1">
-        <v>6.4000000000000001E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="F7" s="3">
-        <v>1.7236E-3</v>
+        <v>1.2168999999999999E-3</v>
       </c>
       <c r="G7" s="1">
-        <v>39202</v>
+        <f t="shared" si="0"/>
+        <v>52276</v>
       </c>
       <c r="H7" s="1">
-        <v>9802</v>
+        <v>13069</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>1.758416649663334E-7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>9.3113474634631568E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>93.2</v>
+        <v>91.4</v>
       </c>
       <c r="C8" s="1">
         <v>100</v>
       </c>
       <c r="D8" s="1">
-        <v>98.6</v>
+        <v>98.3</v>
       </c>
       <c r="E8" s="1">
-        <v>9.6000000000000002E-2</v>
+        <v>0.11</v>
       </c>
       <c r="F8" s="3">
-        <v>2.4451E-3</v>
+        <v>2.0171E-3</v>
       </c>
       <c r="G8" s="1">
-        <v>39202</v>
+        <f t="shared" si="0"/>
+        <v>52276</v>
       </c>
       <c r="H8" s="1">
-        <v>9802</v>
+        <v>13069</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4944909202203629E-7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1.543423368276073E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>68.599999999999994</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="C9" s="1">
-        <v>69</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="D9" s="1">
-        <v>68.900000000000006</v>
+        <v>67.7</v>
       </c>
       <c r="E9" s="1">
-        <v>22.530999999999999</v>
+        <v>19.640999999999998</v>
       </c>
       <c r="F9" s="3">
-        <v>4.2240678999999997</v>
+        <v>3.9195850000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>39202</v>
+        <f t="shared" si="0"/>
+        <v>52276</v>
       </c>
       <c r="H9" s="1">
-        <v>9802</v>
+        <v>13069</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="0"/>
-        <v>4.3093938992042437E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>2.9991468360241792E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1">
-        <v>75.599999999999994</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="C10" s="1">
-        <v>76.099999999999994</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1">
-        <v>76</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="E10" s="1">
-        <v>37.198999999999998</v>
+        <v>22.084</v>
       </c>
       <c r="F10" s="3">
-        <v>4.7873410999999999</v>
+        <v>3.5583657999999998</v>
       </c>
       <c r="G10" s="1">
-        <v>39202</v>
+        <f t="shared" si="0"/>
+        <v>52276</v>
       </c>
       <c r="H10" s="1">
-        <v>9802</v>
+        <v>13069</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>4.8840451948581917E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>2.72275292677328E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1">
-        <v>83.6</v>
+        <v>82.9</v>
       </c>
       <c r="C11" s="1">
-        <v>84.3</v>
+        <v>82.8</v>
       </c>
       <c r="D11" s="1">
-        <v>84.2</v>
+        <v>82.9</v>
       </c>
       <c r="E11" s="1">
-        <v>24.655000000000001</v>
+        <v>16.094000000000001</v>
       </c>
       <c r="F11" s="3">
-        <v>14.0507606</v>
+        <v>10.8432911</v>
       </c>
       <c r="G11" s="1">
-        <v>39202</v>
+        <f t="shared" si="0"/>
+        <v>52276</v>
       </c>
       <c r="H11" s="1">
-        <v>9802</v>
+        <v>13069</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4334585390736584E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>8.2969554671359711E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="1">
-        <v>95.4</v>
+        <v>93.7</v>
       </c>
       <c r="C12" s="1">
-        <v>95.9</v>
+        <v>94.4</v>
       </c>
       <c r="D12" s="1">
-        <v>95.8</v>
+        <v>94.3</v>
       </c>
       <c r="E12" s="4">
-        <v>5.5990000000000002</v>
+        <v>6.4690000000000003</v>
       </c>
       <c r="F12" s="3">
-        <v>2.9583100000000001E-2</v>
+        <v>3.3986299999999997E-2</v>
       </c>
       <c r="G12" s="1">
-        <v>39202</v>
+        <f t="shared" si="0"/>
+        <v>52276</v>
       </c>
       <c r="H12" s="1">
-        <v>9802</v>
+        <v>13069</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="0"/>
-        <v>3.0180677412772904E-6</v>
+        <f t="shared" si="1"/>
+        <v>2.600527966944678E-6</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
